--- a/Excel Readings For Ultrasonic Sensor.xlsx
+++ b/Excel Readings For Ultrasonic Sensor.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musli\Desktop\Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8E33CF-5571-4D6C-B2F7-C3B04CC66589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD9599F-180C-409E-9EA0-C36B2F41FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E1D6C6C-047B-4804-BD02-6F42BD274D49}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5E1D6C6C-047B-4804-BD02-6F42BD274D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="linear" sheetId="2" r:id="rId2"/>
+    <sheet name="polynomial" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>Speed:</t>
   </si>
@@ -418,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC98B454-15CA-46A1-BAD2-3EFACD397BEF}">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,6 +604,188 @@
       </c>
       <c r="B23">
         <v>82.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3406EC7B-E25A-48FE-AD66-C1CA5F8C1131}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>37.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82425A5-9124-4B3D-A2FB-B388C34E9673}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>32.270000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -843,20 +1027,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="876bdd41-fb17-49cb-87a1-20466969a1d5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="876bdd41-fb17-49cb-87a1-20466969a1d5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,6 +1063,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC0EBA7-3708-4BFC-8610-82ED8202CA9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C0332A-E84F-429C-88D6-2B88DA9E1F05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -893,12 +1085,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDC0EBA7-3708-4BFC-8610-82ED8202CA9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>